--- a/scripts/results.xlsx
+++ b/scripts/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\imtd-server\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D815B59E-55E2-4E8E-96F6-5B6F2A47782B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2C9BDC-7202-478D-B308-4A82485AB692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,11 +919,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2183,10 +2180,10 @@
         <v>153</v>
       </c>
       <c r="N3">
-        <v>50.518746</v>
+        <v>50.513812000000001</v>
       </c>
       <c r="O3">
-        <v>2.6456219999999999</v>
+        <v>2.6583480000000002</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -2485,9 +2482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2548,7 +2543,7 @@
       <c r="D2" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>59500</v>
       </c>
       <c r="F2" t="s">
@@ -2592,7 +2587,7 @@
       <c r="D3" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>59655</v>
       </c>
       <c r="F3" t="s">
@@ -2636,7 +2631,7 @@
       <c r="D4" t="s">
         <v>225</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>62231</v>
       </c>
       <c r="F4" t="s">
@@ -2674,7 +2669,7 @@
       <c r="D5" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>59000</v>
       </c>
       <c r="F5" t="s">
@@ -2715,7 +2710,7 @@
       <c r="D6" t="s">
         <v>240</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>241</v>
       </c>
       <c r="F6" t="s">
@@ -2756,7 +2751,7 @@
       <c r="D7" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>249</v>
       </c>
       <c r="F7" t="s">
@@ -2794,7 +2789,7 @@
       <c r="D8" t="s">
         <v>257</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>258</v>
       </c>
       <c r="F8" t="s">
@@ -2835,7 +2830,7 @@
       <c r="D9" t="s">
         <v>267</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>268</v>
       </c>
       <c r="F9" t="s">
@@ -2876,7 +2871,7 @@
       <c r="D10" t="s">
         <v>275</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>59000</v>
       </c>
       <c r="F10" t="s">
